--- a/AtaRK_Back/AtaRK_Back/wwwroot/dataFiles/copy_SystemAdmins_1.xlsx
+++ b/AtaRK_Back/AtaRK_Back/wwwroot/dataFiles/copy_SystemAdmins_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -26,6 +26,15 @@
   </x:si>
   <x:si>
     <x:t>Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Master 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Master 3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,7 +385,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:C6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -404,6 +413,47 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
